--- a/data/trans_orig/TAM_HOG-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,03</t>
+          <t>2,73; 3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 3,36</t>
+          <t>3,06; 3,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,28</t>
+          <t>2,95; 3,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,9</t>
+          <t>2,53; 2,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,45</t>
+          <t>3,11; 3,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,01</t>
+          <t>2,77; 3,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,0</t>
+          <t>2,78; 2,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,35</t>
+          <t>3,11; 3,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,18</t>
+          <t>2,94; 3,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,37 +869,37 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,34</t>
+          <t>3,12; 3,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,24</t>
+          <t>3,0; 3,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,93</t>
+          <t>2,64; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,4</t>
+          <t>3,16; 3,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,25</t>
+          <t>3,03; 3,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 3,26</t>
+          <t>3,01; 3,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 2,97</t>
+          <t>2,75; 2,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,27</t>
+          <t>3,12; 3,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,22</t>
+          <t>3,05; 3,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 2,91</t>
+          <t>2,73; 2,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,52 +1004,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,35</t>
+          <t>3,07; 3,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,34</t>
+          <t>3,07; 3,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,96</t>
+          <t>2,73; 2,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,84</t>
+          <t>2,56; 2,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,32</t>
+          <t>3,02; 3,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,31</t>
+          <t>3,0; 3,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,06</t>
+          <t>2,77; 3,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,88</t>
+          <t>2,59; 2,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,29</t>
+          <t>3,09; 3,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,28</t>
+          <t>3,08; 3,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,81</t>
+          <t>2,6; 2,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,22</t>
+          <t>2,98; 3,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,28</t>
+          <t>3,01; 3,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,18</t>
+          <t>2,89; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 2,63</t>
+          <t>2,31; 2,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,2</t>
+          <t>2,95; 3,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,24</t>
+          <t>2,97; 3,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,04</t>
+          <t>2,76; 3,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,87</t>
+          <t>2,35; 2,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,17</t>
+          <t>2,99; 3,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,21</t>
+          <t>3,03; 3,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,08</t>
+          <t>2,86; 3,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,71</t>
+          <t>2,4; 2,75</t>
         </is>
       </c>
     </row>
@@ -1284,42 +1284,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,47</t>
+          <t>3,07; 3,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 3,49</t>
+          <t>3,16; 3,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,21</t>
+          <t>2,79; 3,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,73</t>
+          <t>2,4; 2,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 3,71</t>
+          <t>3,33; 3,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,32</t>
+          <t>3,01; 3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,19</t>
+          <t>2,83; 3,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,85</t>
+          <t>2,56; 2,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,24 +1329,24 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,36</t>
+          <t>3,12; 3,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,13</t>
+          <t>2,87; 3,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,77</t>
+          <t>2,53; 2,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,28</t>
+          <t>2,98; 3,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,59 +1434,59 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,25</t>
+          <t>2,95; 3,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 2,7</t>
+          <t>2,42; 2,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,08</t>
+          <t>2,78; 3,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,39</t>
+          <t>3,03; 3,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,95</t>
+          <t>2,66; 2,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,81</t>
+          <t>2,56; 2,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,14</t>
+          <t>2,93; 3,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 3,28</t>
+          <t>3,05; 3,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,05</t>
+          <t>2,84; 3,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 2,72</t>
+          <t>2,53; 2,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,27</t>
+          <t>3,04; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,73</t>
+          <t>2,54; 2,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,22 +1584,22 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 3,36</t>
+          <t>3,14; 3,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,21</t>
+          <t>2,99; 3,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 2,7</t>
+          <t>2,51; 2,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,01</t>
+          <t>2,86; 3,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,19</t>
+          <t>3,05; 3,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1704,37 +1704,37 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 3,41</t>
+          <t>3,23; 3,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 3,21</t>
+          <t>3,01; 3,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,05</t>
+          <t>2,86; 3,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,59</t>
+          <t>2,8; 3,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,29; 3,49</t>
+          <t>3,29; 3,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,25</t>
+          <t>3,06; 3,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,13</t>
+          <t>2,96; 3,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,29; 3,43</t>
+          <t>3,28; 3,42</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,2</t>
+          <t>3,08; 3,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,07</t>
+          <t>2,94; 3,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1854,17 +1854,17 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 2,99</t>
+          <t>2,89; 2,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,07</t>
+          <t>2,7; 3,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,26</t>
+          <t>3,17; 3,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,83</t>
+          <t>2,73; 2,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,16; 3,23</t>
+          <t>3,16; 3,22</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 2,97</t>
+          <t>2,9; 2,96</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
